--- a/medicine/Psychotrope/Sainte-croix-du-mont_(AOC)/Sainte-croix-du-mont_(AOC).xlsx
+++ b/medicine/Psychotrope/Sainte-croix-du-mont_(AOC)/Sainte-croix-du-mont_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sainte-croix-du-mont[1], ou appellation sainte-croix-du-mont contrôlée, est un vin français d'appellation d'origine contrôlée produit sur la commune de Sainte-Croix-du-Mont.
+Le sainte-croix-du-mont, ou appellation sainte-croix-du-mont contrôlée, est un vin français d'appellation d'origine contrôlée produit sur la commune de Sainte-Croix-du-Mont.
 Avec les appellations cadillac et loupiac, ils forment ensemble une petite région produisant des vins liquoreux au sein du vignoble de l'Entre-deux-Mers, dans le vignoble de Bordeaux.
 </t>
         </is>
@@ -513,15 +525,87 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble est situé en France autour de la commune de Sainte-Croix-du-Mont dans le département de la Gironde, en région Aquitaine.
-Aire d'appellation
-L'appellation viticole s’étend sur 450 hectares[5], l'encépagement se compose de Sémillion (85 %), Sauvignon Blanc (12 %) et Muscadelle (3 %)[6]. Elle détient une bonne situation géographique avec ses vignes bordant la Garonne, susceptibles de favoriser le développement du champignon Botrytis cinerea. Cette pourriture noble concentre la teneur en sucre, l'acidité et le glycérol des grappes de raisin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sainte-croix-du-mont_(AOC)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sainte-croix-du-mont_(AOC)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation viticole s’étend sur 450 hectares, l'encépagement se compose de Sémillion (85 %), Sauvignon Blanc (12 %) et Muscadelle (3 %). Elle détient une bonne situation géographique avec ses vignes bordant la Garonne, susceptibles de favoriser le développement du champignon Botrytis cinerea. Cette pourriture noble concentre la teneur en sucre, l'acidité et le glycérol des grappes de raisin.
 Les vins produits sont des vins blancs liquoreux correspondant aux normes et aux styles du sauternes. Ils ont aussi un potentiel de garde de plusieurs décennies.
 Le Syndicat Viticole de Sainte-Croix-du-Mont est chargé de la gestion de l'appellation d'origine contrôlée sainte-croix-du-mont et gère le site internet correspondant depuis 2007.
-Géologie
-La falaise de Sainte-Croix-du-Mont tranche toutes les formations de l'Entre-deux-Mers, avec de haut en bas : les argiles à graviers du Pliocène forment le sommet des buttes du sud de l'Entre-deux-Mers ; le niveau à huîtres (sous le village de Sainte-Croix-du-Mont) et calcaires gréseux du Burdigalien (Miocène), les marnes à argiles grises (peu favorables à la vigne) et les calcaires à Astéries datant du Rupélien (l'ancien Stampien, à Oligocène supérieur). La base est partiellement recouvert par des éboulis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sainte-croix-du-mont_(AOC)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sainte-croix-du-mont_(AOC)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La falaise de Sainte-Croix-du-Mont tranche toutes les formations de l'Entre-deux-Mers, avec de haut en bas : les argiles à graviers du Pliocène forment le sommet des buttes du sud de l'Entre-deux-Mers ; le niveau à huîtres (sous le village de Sainte-Croix-du-Mont) et calcaires gréseux du Burdigalien (Miocène), les marnes à argiles grises (peu favorables à la vigne) et les calcaires à Astéries datant du Rupélien (l'ancien Stampien, à Oligocène supérieur). La base est partiellement recouvert par des éboulis.
 </t>
         </is>
       </c>
